--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaabd\PycharmProjects\SosBot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f70f1b662a66e60f/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A12CEEA-EC7E-496B-8B9C-33CC0A3304A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2A12CEEA-EC7E-496B-8B9C-33CC0A3304A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BFF40B8-DB83-4117-87A9-133A800A2504}"/>
   <bookViews>
     <workbookView xWindow="684" yWindow="972" windowWidth="10812" windowHeight="9420" xr2:uid="{8C1C5BFE-26A6-4AD4-AA9A-A0245CBA003C}"/>
   </bookViews>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CC4940-01B1-4384-B4F1-AEE65DC04ABC}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
         <v>45026</v>
       </c>
       <c r="K2" s="1">
-        <v>45027</v>
+        <v>45035</v>
       </c>
       <c r="L2" s="1">
         <v>45028</v>
@@ -712,7 +712,7 @@
         <v>45049</v>
       </c>
       <c r="AH2" s="1">
-        <v>43863</v>
+        <v>45057</v>
       </c>
       <c r="AI2" s="1"/>
     </row>
